--- a/dpp_api/data/ONEPan/parameter_metadata_ONEPan.xlsx
+++ b/dpp_api/data/ONEPan/parameter_metadata_ONEPan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berenicegudino/Desktop/Code/dpp/dpp_app/data/OnePan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beren\Code\dpp_smartpass\dpp_app\data\ONEPan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936DBB6F-88A1-4548-BC90-5798ADEA4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34085376-84C2-44EA-B27B-5FF532AA08C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-380" windowWidth="38400" windowHeight="21100" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5499085-62E6-4B04-A4E2-EEF974C52419}"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_metadata" sheetId="4" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1318,12 +1318,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1336,7 +1331,6 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1399,7 +1393,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1431,46 +1425,6 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.749961851863155"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1868,19 +1822,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91110A29-C29E-1746-BC3B-9F1F909FD312}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45:J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="52.85546875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>parameter_metadata_original!A1</f>
         <v>category</v>
@@ -1926,7 +1881,7 @@
         <v>data model definition string</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>parameter_metadata_original!A3</f>
         <v>1. General product and manufacturer information</v>
@@ -1966,7 +1921,7 @@
         <v>{"Product ID": {"@type":"gs1:gtin","value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>parameter_metadata_original!A5</f>
         <v>1. General product and manufacturer information</v>
@@ -2003,7 +1958,7 @@
         <v>{"Manufacturing date": {"@type":"gs1:productionDateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>parameter_metadata_original!A6</f>
         <v>1. General product and manufacturer information</v>
@@ -2044,7 +1999,7 @@
         <v>{"Manufactured by": {"@type":"gs1:organizationName", "value": {"@value": "", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>parameter_metadata_original!A7</f>
         <v>1. General product and manufacturer information</v>
@@ -2089,7 +2044,7 @@
         <v>{"Manufacturing place" : {"@type":"gs1:address", "City": {"@type":"gs1:addressLocality", "value":{"@value": "", "@type":"xsd:string"}} , "Address":{"@type":"gs1:streetAddress",  "value":{"@value": "", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>parameter_metadata_original!A8</f>
         <v>1. General product and manufacturer information</v>
@@ -2130,7 +2085,7 @@
         <v>{"Product category" : {"@type":"gs1:brandName", "value":{"@value":"", "@type":"rdf:langString"}}}</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>parameter_metadata_original!A9</f>
         <v>1. General product and manufacturer information</v>
@@ -2171,7 +2126,7 @@
         <v>{"Economic operator" : {"@type":"schema:legalName",  "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>parameter_metadata_original!A14</f>
         <v>1. General product and manufacturer information</v>
@@ -2212,7 +2167,7 @@
         <v>{"Original weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>parameter_metadata_original!A15</f>
         <v>1. General product and manufacturer information</v>
@@ -2253,7 +2208,7 @@
         <v>{"Dimensions":{ "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>parameter_metadata_original!A22</f>
         <v>1. General product and manufacturer information</v>
@@ -2290,7 +2245,7 @@
         <v>{"Date of purchase" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>parameter_metadata_original!A23</f>
         <v>1. General product and manufacturer information</v>
@@ -2318,11 +2273,11 @@
         <f>parameter_metadata_original!H23</f>
         <v>Static</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="21">
         <f>parameter_metadata_original!I23</f>
         <v>45541</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="26">
         <f>parameter_metadata_original!J23</f>
         <v>45541</v>
       </c>
@@ -2331,7 +2286,7 @@
         <v>{"Date of product registration on website" : {"value":{"@value":"", "@type":"xsd:dateTime"}}}</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>parameter_metadata_original!A26</f>
         <v>1. General product and manufacturer information</v>
@@ -2372,7 +2327,7 @@
         <v>{"Ovenproof" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>parameter_metadata_original!A27</f>
         <v>1. General product and manufacturer information</v>
@@ -2413,7 +2368,7 @@
         <v>{"Heat sources" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>parameter_metadata_original!A45</f>
         <v>3. Carbon footprint</v>
@@ -2454,7 +2409,7 @@
         <v>{"CO2 footprint manufacturing (cradle to gate) (to warehouse)" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"CO2"}}}</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>parameter_metadata_original!A46</f>
         <v>3. Carbon footprint</v>
@@ -2495,7 +2450,7 @@
         <v>{"CO2 footprint refurbishment (recoating process)" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"CO2"}}}</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>parameter_metadata_original!A51</f>
         <v>3. Carbon footprint</v>
@@ -2532,7 +2487,7 @@
         <v>{"CO2 footprint EOL (recycling)" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"CO2"}}}</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>parameter_metadata_original!A52</f>
         <v>3. Carbon footprint</v>
@@ -2569,7 +2524,7 @@
         <v>{"Min allowed weight" : {"value":{"@value":"", "@type":"xsd:string", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>parameter_metadata_original!A54</f>
         <v>3. Carbon footprint</v>
@@ -2610,7 +2565,7 @@
         <v>{"Refurbished in" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>parameter_metadata_original!A19</f>
         <v>5. Material and composition</v>
@@ -2651,7 +2606,7 @@
         <v>{"Hazardous substances, other than Hg, Cd, Pb" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>parameter_metadata_original!A28</f>
         <v>5. Material and composition</v>
@@ -2692,7 +2647,7 @@
         <v>{"Number of components" : {"value":{"@value":"", "@type":"xsd:int"}}}</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>parameter_metadata_original!A29</f>
         <v>5. Material and composition</v>
@@ -2733,7 +2688,7 @@
         <v>{"Components" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>parameter_metadata_original!A30</f>
         <v>5. Material and composition</v>
@@ -2774,7 +2729,7 @@
         <v>{"Bottom plate content" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>parameter_metadata_original!A31</f>
         <v>5. Material and composition</v>
@@ -2815,7 +2770,7 @@
         <v>{"Pan body content" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>parameter_metadata_original!A32</f>
         <v>5. Material and composition</v>
@@ -2856,7 +2811,7 @@
         <v>{"Handle content" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>parameter_metadata_original!A33</f>
         <v>5. Material and composition</v>
@@ -2897,7 +2852,7 @@
         <v>{"Coating content" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>parameter_metadata_original!A34</f>
         <v>5. Material and composition</v>
@@ -2938,7 +2893,7 @@
         <v>{"Bottom plate weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>parameter_metadata_original!A35</f>
         <v>5. Material and composition</v>
@@ -2979,7 +2934,7 @@
         <v>{"Pan body weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>parameter_metadata_original!A36</f>
         <v>5. Material and composition</v>
@@ -3020,7 +2975,7 @@
         <v>{"Handle weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>parameter_metadata_original!A37</f>
         <v>5. Material and composition</v>
@@ -3061,7 +3016,7 @@
         <v>{"Coating weight" : {"value":{"@value":"", "@type":"xsd:string", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>parameter_metadata_original!A16</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3102,7 +3057,7 @@
         <v>{"Recycled content" : { "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>parameter_metadata_original!A17</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3143,7 +3098,7 @@
         <v>{"Recycled content weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>parameter_metadata_original!A18</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3184,7 +3139,7 @@
         <v>{"Recycled content [share - wt%]" : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>parameter_metadata_original!A20</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3224,7 +3179,7 @@
         <v>{"Renewable content share"  : {"value":{"@value":"", "@type":"xsd:float",  "unitCode":"P1"}}}</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>parameter_metadata_original!A21</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3265,7 +3220,7 @@
         <v>{"Information on sources of spare parts" : {"@type":"gs1:purchaseSuppliesOrAccessories", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>parameter_metadata_original!A24</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3306,7 +3261,7 @@
         <v>{"Warranty period" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>parameter_metadata_original!A25</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3347,7 +3302,7 @@
         <v>{"Circular system Re-Coat" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>parameter_metadata_original!A38</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3388,7 +3343,7 @@
         <v>{"Recoating" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>parameter_metadata_original!A39</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3429,7 +3384,7 @@
         <v>{"Part numbers for spare parts" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>parameter_metadata_original!A40</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3470,7 +3425,7 @@
         <v>{"Maintenance guidelines" : {"@type":"gs1:pip", "value":{"@value":"", "@type":"xsd:anyURI"}}}</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>parameter_metadata_original!A41</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3511,7 +3466,7 @@
         <v>{"Dismantling information: Manuals for the removal and the disassembly of the product" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>parameter_metadata_original!A42</f>
         <v>6. Circularity and resource efficiency</v>
@@ -3552,7 +3507,7 @@
         <v>{"Recycling pathways" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>parameter_metadata_original!A10</f>
         <v>9. Product Updates</v>
@@ -3593,7 +3548,7 @@
         <v>{"Update ID" : { "value": {"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>parameter_metadata_original!A11</f>
         <v>9. Product Updates</v>
@@ -3630,7 +3585,7 @@
         <v>{"DPP Update Timestamp" : {"@type":"schema:startTime", "value":{"@type":"schema:DateTime", "value": {"@value":"", "@type":"xsd:dateTime"}}}}</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>parameter_metadata_original!A12</f>
         <v>9. Product Updates</v>
@@ -3667,7 +3622,7 @@
         <v>{"DPP Update Reason" :  {"@type":"schema:description", "value":{"@type":"schema:Text", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>parameter_metadata_original!A13</f>
         <v>9. Product Updates</v>
@@ -3708,7 +3663,7 @@
         <v>{"DPP Update Responsible" :  {"@type":"schema:Organization", "value":{"@type":"schema:legalName", "value": {"@value":"", "@type":"xsd:string"}}}}</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>parameter_metadata_original!A53</f>
         <v>9. Product Updates</v>
@@ -3745,7 +3700,7 @@
         <v>{"Actual weight" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>parameter_metadata_original!A47</f>
         <v>9. Product Updates</v>
@@ -3782,7 +3737,7 @@
         <v>{"CO2 footprint n cycles of recoating" : {"value":{"@value":"", "@type":"xsd:float"}}}</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>parameter_metadata_original!A48</f>
         <v>9. Product Updates</v>
@@ -3819,7 +3774,7 @@
         <v>{"Number of recoating/circulations" : {"value":{"@value":"", "@type":"xsd:int"}}}</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>parameter_metadata_original!A49</f>
         <v>9. Product Updates</v>
@@ -3856,7 +3811,7 @@
         <v>{"CO2 saving after n cycles of recoating" : {"value":{"@value":"", "@type":"xsd:float", "unitCode":"KGM"}}}</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>parameter_metadata_original!A50</f>
         <v>9. Product Updates</v>
@@ -3893,7 +3848,7 @@
         <v>{"Geography (location of owner/user)" : {"value":{"@value":"", "@type":"xsd:string"}}}</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>parameter_metadata_original!A55</f>
         <v>9. Product Updates</v>
@@ -3956,24 +3911,24 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="81.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="81.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4007,14 +3962,14 @@
       <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +3985,7 @@
       <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" t="s">
         <v>38</v>
       </c>
       <c r="I2"/>
@@ -4041,7 +3996,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -4057,7 +4012,7 @@
       <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" t="s">
         <v>38</v>
       </c>
       <c r="I3"/>
@@ -4068,7 +4023,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -4081,7 +4036,7 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" t="s">
         <v>38</v>
       </c>
       <c r="I4" t="s">
@@ -4097,7 +4052,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -4113,7 +4068,7 @@
       <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" t="s">
         <v>38</v>
       </c>
       <c r="I5"/>
@@ -4127,7 +4082,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4143,7 +4098,7 @@
       <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
       <c r="I6" t="s">
@@ -4159,7 +4114,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -4178,7 +4133,7 @@
       <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
       <c r="I7" t="s">
@@ -4194,7 +4149,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4210,7 +4165,7 @@
       <c r="G8" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" t="s">
         <v>38</v>
       </c>
       <c r="I8" t="s">
@@ -4226,7 +4181,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -4242,7 +4197,7 @@
       <c r="G9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" t="s">
         <v>38</v>
       </c>
       <c r="I9" t="s">
@@ -4258,7 +4213,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -4274,7 +4229,7 @@
       <c r="G10" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" t="s">
         <v>39</v>
       </c>
       <c r="I10">
@@ -4287,7 +4242,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -4303,7 +4258,7 @@
       <c r="G11" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
       <c r="I11"/>
@@ -4314,7 +4269,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -4330,7 +4285,7 @@
       <c r="G12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12"/>
@@ -4341,7 +4296,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -4357,20 +4312,20 @@
       <c r="G13" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4383,29 +4338,29 @@
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="20">
         <v>1.7</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="20">
         <v>2.7</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4421,7 +4376,7 @@
       <c r="G15" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" t="s">
         <v>38</v>
       </c>
       <c r="I15" t="s">
@@ -4437,7 +4392,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -4453,7 +4408,7 @@
       <c r="G16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" t="s">
         <v>38</v>
       </c>
       <c r="I16" t="s">
@@ -4469,7 +4424,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -4479,32 +4434,32 @@
       <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="20">
         <v>1.2</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="20">
         <v>1.2</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>156</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4514,13 +4469,13 @@
       <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" t="s">
         <v>38</v>
       </c>
       <c r="I18">
@@ -4532,14 +4487,14 @@
       <c r="K18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>156</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -4552,10 +4507,10 @@
       <c r="D19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" t="s">
         <v>38</v>
       </c>
       <c r="I19" t="s">
@@ -4571,7 +4526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4584,10 +4539,10 @@
       <c r="D20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" t="s">
         <v>38</v>
       </c>
       <c r="I20">
@@ -4606,7 +4561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -4619,10 +4574,10 @@
       <c r="D21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" t="s">
         <v>38</v>
       </c>
       <c r="I21" t="s">
@@ -4638,7 +4593,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -4651,10 +4606,10 @@
       <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" t="s">
         <v>38</v>
       </c>
       <c r="I22"/>
@@ -4665,7 +4620,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4675,19 +4630,19 @@
       <c r="C23" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" t="s">
         <v>38</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="21">
         <v>45541</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="21">
         <v>45541</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -4700,7 +4655,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -4710,19 +4665,19 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="21" t="s">
         <v>193</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -4732,7 +4687,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4742,19 +4697,19 @@
       <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I25" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="21" t="s">
         <v>114</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -4764,7 +4719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -4774,19 +4729,19 @@
       <c r="C26" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="I26" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="21" t="s">
         <v>115</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -4796,7 +4751,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4806,19 +4761,19 @@
       <c r="C27" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="21" t="s">
         <v>116</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -4828,7 +4783,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -4841,10 +4796,10 @@
       <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="2">
@@ -4860,7 +4815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -4870,13 +4825,13 @@
       <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" t="s">
         <v>38</v>
       </c>
       <c r="I29" t="s">
@@ -4892,7 +4847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4902,13 +4857,13 @@
       <c r="C30" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" t="s">
         <v>38</v>
       </c>
       <c r="I30" t="s">
@@ -4924,7 +4879,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4934,13 +4889,13 @@
       <c r="C31" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" t="s">
         <v>38</v>
       </c>
       <c r="I31" t="s">
@@ -4956,7 +4911,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -4966,13 +4921,13 @@
       <c r="C32" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" t="s">
         <v>38</v>
       </c>
       <c r="I32" t="s">
@@ -4988,7 +4943,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -4998,13 +4953,13 @@
       <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" t="s">
         <v>38</v>
       </c>
       <c r="I33" t="s">
@@ -5020,7 +4975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -5030,13 +4985,13 @@
       <c r="C34" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" t="s">
         <v>38</v>
       </c>
       <c r="I34">
@@ -5055,7 +5010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -5065,19 +5020,19 @@
       <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="20">
         <v>1.2</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="20">
         <v>1.2</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -5090,7 +5045,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -5100,13 +5055,13 @@
       <c r="C36" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" t="s">
         <v>38</v>
       </c>
       <c r="I36">
@@ -5125,7 +5080,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -5135,13 +5090,13 @@
       <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" t="s">
         <v>38</v>
       </c>
       <c r="I37" t="s">
@@ -5160,7 +5115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -5170,13 +5125,13 @@
       <c r="C38" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="14" t="s">
+      <c r="H38" t="s">
         <v>38</v>
       </c>
       <c r="I38" t="s">
@@ -5192,7 +5147,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -5202,13 +5157,13 @@
       <c r="C39" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" t="s">
         <v>38</v>
       </c>
       <c r="I39" t="s">
@@ -5224,7 +5179,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -5234,19 +5189,19 @@
       <c r="C40" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" t="s">
         <v>38</v>
       </c>
-      <c r="I40" s="26" t="s">
+      <c r="I40" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="J40" s="26" t="s">
+      <c r="J40" s="22" t="s">
         <v>175</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -5256,7 +5211,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -5266,13 +5221,13 @@
       <c r="C41" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" t="s">
         <v>38</v>
       </c>
       <c r="I41" t="s">
@@ -5288,7 +5243,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -5298,19 +5253,19 @@
       <c r="C42" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="25" t="s">
+      <c r="I42" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="21" t="s">
         <v>125</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -5320,7 +5275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -5330,13 +5285,13 @@
       <c r="C43" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="21" t="s">
+      <c r="H43" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I43">
@@ -5355,7 +5310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -5365,10 +5320,10 @@
       <c r="D44" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" t="s">
         <v>38</v>
       </c>
       <c r="I44">
@@ -5387,7 +5342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -5397,13 +5352,13 @@
       <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" t="s">
         <v>38</v>
       </c>
       <c r="I45">
@@ -5422,7 +5377,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -5432,13 +5387,13 @@
       <c r="C46" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" t="s">
         <v>38</v>
       </c>
       <c r="I46">
@@ -5457,7 +5412,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -5467,13 +5422,13 @@
       <c r="C47" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" t="s">
         <v>39</v>
       </c>
       <c r="I47"/>
@@ -5484,7 +5439,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -5494,13 +5449,13 @@
       <c r="C48" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H48" s="14" t="s">
+      <c r="H48" t="s">
         <v>39</v>
       </c>
       <c r="I48"/>
@@ -5514,7 +5469,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -5524,13 +5479,13 @@
       <c r="C49" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="14" t="s">
+      <c r="H49" t="s">
         <v>39</v>
       </c>
       <c r="I49"/>
@@ -5544,7 +5499,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -5554,13 +5509,13 @@
       <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G50" s="23" t="s">
+      <c r="G50" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H50" s="14" t="s">
+      <c r="H50" t="s">
         <v>39</v>
       </c>
       <c r="I50"/>
@@ -5571,7 +5526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
@@ -5581,13 +5536,13 @@
       <c r="C51" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H51" s="14" t="s">
+      <c r="H51" t="s">
         <v>38</v>
       </c>
       <c r="I51"/>
@@ -5598,7 +5553,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>34</v>
       </c>
@@ -5608,13 +5563,13 @@
       <c r="C52" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" t="s">
         <v>38</v>
       </c>
       <c r="I52"/>
@@ -5628,7 +5583,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -5638,13 +5593,13 @@
       <c r="C53" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" t="s">
         <v>39</v>
       </c>
       <c r="I53"/>
@@ -5658,7 +5613,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -5668,13 +5623,13 @@
       <c r="C54" t="s">
         <v>188</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" t="s">
         <v>38</v>
       </c>
       <c r="I54" t="s">
@@ -5690,7 +5645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5722,469 +5677,410 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="16"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="D56" s="13"/>
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="16"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+      <c r="D57" s="13"/>
       <c r="H57" s="4"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="16"/>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+      <c r="D58" s="13"/>
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="16"/>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="11"/>
+      <c r="D59" s="13"/>
       <c r="H59" s="4"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16"/>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="11"/>
+      <c r="D60" s="13"/>
       <c r="H60" s="4"/>
       <c r="I60" s="5"/>
       <c r="J60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B61" s="13"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="16"/>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="11"/>
+      <c r="D61" s="13"/>
       <c r="H61" s="4"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="16"/>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="11"/>
+      <c r="D62" s="13"/>
       <c r="H62" s="4"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B63" s="13"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="16"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="11"/>
+      <c r="D63" s="13"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="16"/>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="11"/>
+      <c r="D64" s="13"/>
       <c r="H64" s="4"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="13"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="16"/>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="11"/>
+      <c r="D65" s="13"/>
       <c r="H65" s="4"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16"/>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="11"/>
+      <c r="D66" s="13"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="13"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="16"/>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="11"/>
+      <c r="D67" s="13"/>
       <c r="H67" s="4"/>
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="16"/>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="D68" s="13"/>
       <c r="H68" s="4"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="16"/>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="11"/>
+      <c r="D69" s="13"/>
       <c r="H69" s="4"/>
       <c r="I69" s="3"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="16"/>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="11"/>
+      <c r="D70" s="13"/>
       <c r="H70" s="4"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="16"/>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="11"/>
+      <c r="D71" s="13"/>
       <c r="H71" s="4"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="16"/>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="11"/>
+      <c r="D72" s="13"/>
       <c r="H72" s="4"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="16"/>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="11"/>
+      <c r="D73" s="13"/>
       <c r="H73" s="4"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="16"/>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="11"/>
+      <c r="D74" s="13"/>
       <c r="H74" s="4"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="13"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="16"/>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="11"/>
+      <c r="D75" s="13"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="16"/>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="11"/>
+      <c r="D76" s="13"/>
       <c r="H76" s="4"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="16"/>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="11"/>
+      <c r="D77" s="13"/>
       <c r="H77" s="4"/>
       <c r="I77" s="7"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16"/>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" s="11"/>
+      <c r="D78" s="13"/>
       <c r="H78" s="4"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="13"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="16"/>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" s="11"/>
+      <c r="D79" s="13"/>
       <c r="H79" s="4"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="16"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" s="11"/>
+      <c r="D80" s="13"/>
       <c r="H80" s="4"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="16"/>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="11"/>
+      <c r="D81" s="13"/>
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="28"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="16"/>
+      <c r="K81" s="24"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="11"/>
+      <c r="D82" s="13"/>
       <c r="H82" s="4"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-      <c r="K82" s="28"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="16"/>
+      <c r="K82" s="24"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="11"/>
+      <c r="D83" s="13"/>
       <c r="H83" s="4"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="16"/>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="11"/>
+      <c r="D84" s="13"/>
       <c r="H84" s="4"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="16"/>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="11"/>
+      <c r="D85" s="13"/>
       <c r="H85" s="4"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="28"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="16"/>
+      <c r="K85" s="24"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="11"/>
+      <c r="D86" s="13"/>
       <c r="H86" s="4"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B87" s="13"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="16"/>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="11"/>
+      <c r="D87" s="13"/>
       <c r="H87" s="4"/>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16"/>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="11"/>
+      <c r="D88" s="13"/>
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="16"/>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="11"/>
+      <c r="D89" s="13"/>
       <c r="H89" s="4"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="16"/>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="11"/>
+      <c r="D90" s="13"/>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B91" s="13"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="16"/>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="11"/>
+      <c r="D91" s="13"/>
       <c r="H91" s="4"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="16"/>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="11"/>
+      <c r="D92" s="13"/>
       <c r="H92" s="4"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="28"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B93" s="13"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="16"/>
+      <c r="K92" s="24"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="D93" s="13"/>
       <c r="H93" s="4"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="16"/>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="D94" s="13"/>
       <c r="H94" s="4"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B95" s="13"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="16"/>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="D95" s="13"/>
       <c r="H95" s="4"/>
       <c r="I95" s="5"/>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="16"/>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="D96" s="13"/>
       <c r="H96" s="4"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B97" s="13"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="16"/>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+      <c r="D97" s="13"/>
       <c r="H97" s="4"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="16"/>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="11"/>
+      <c r="D98" s="13"/>
       <c r="H98" s="4"/>
       <c r="I98" s="5"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="16"/>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="11"/>
+      <c r="D99" s="13"/>
       <c r="H99" s="4"/>
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="16"/>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="D100" s="13"/>
       <c r="H100" s="4"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B101" s="13"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="16"/>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="D101" s="13"/>
       <c r="H101" s="4"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="16"/>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="11"/>
+      <c r="D102" s="13"/>
       <c r="H102" s="4"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="16"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="11"/>
+      <c r="D103" s="13"/>
       <c r="H103" s="4"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="16"/>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="D104" s="13"/>
       <c r="H104" s="4"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B105" s="13"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="16"/>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="D105" s="13"/>
       <c r="H105" s="4"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B106" s="13"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="16"/>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+      <c r="D106" s="13"/>
       <c r="H106" s="4"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="29"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B107" s="13"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="16"/>
+      <c r="K106" s="25"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="11"/>
+      <c r="D107" s="13"/>
       <c r="H107" s="4"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10"/>
-      <c r="K107" s="29"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="16"/>
+      <c r="K107" s="25"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+      <c r="D108" s="13"/>
       <c r="H108" s="4"/>
       <c r="I108" s="10"/>
       <c r="J108" s="10"/>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B109" s="13"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="16"/>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+      <c r="D109" s="13"/>
       <c r="H109" s="4"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="16"/>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="D110" s="13"/>
       <c r="H110" s="4"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B111" s="13"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="16"/>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="D111" s="13"/>
       <c r="H111" s="4"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="16"/>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="D112" s="13"/>
       <c r="H112" s="4"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="13"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="15"/>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
       <c r="H113" s="4"/>
     </row>
   </sheetData>
@@ -6194,39 +6090,31 @@
     <sortCondition ref="E22:E46"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="L10:M10 H2:H54">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="G5:G8 G10:G13">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Dynamic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>"Static"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+  <conditionalFormatting sqref="H2:H54">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"Dynamic"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"Static"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8 G10:G13">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:M9 L26:L27 L28:M29 L30:L33 M34:M37 L38:L44 M44">
+  <conditionalFormatting sqref="L9:M10 L26:L27 L28:M29 L30:L33 M34:M37 L38:L44 M44">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Dynamic"</formula>
     </cfRule>
@@ -6259,14 +6147,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6277,7 +6165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -6288,7 +6176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -6299,7 +6187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -6310,7 +6198,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -6321,7 +6209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -6345,13 +6233,13 @@
       <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6359,7 +6247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -6367,7 +6255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -6375,7 +6263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -6383,7 +6271,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -6391,7 +6279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -6399,7 +6287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -6407,7 +6295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -6415,7 +6303,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -6423,7 +6311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -6431,7 +6319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -6439,7 +6327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>73</v>
       </c>
@@ -6447,7 +6335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -6455,7 +6343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
